--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Pomc-Mc2r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Pomc-Mc2r.xlsx
@@ -528,22 +528,22 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.171359</v>
+        <v>2.862146333333333</v>
       </c>
       <c r="H2">
-        <v>3.514077</v>
+        <v>8.586439</v>
       </c>
       <c r="I2">
-        <v>0.9475013771363814</v>
+        <v>0.9778268096017091</v>
       </c>
       <c r="J2">
-        <v>0.9475013771363814</v>
+        <v>0.9778268096017091</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.052399183053</v>
+        <v>0.1280343000265556</v>
       </c>
       <c r="R2">
-        <v>0.4715926474769999</v>
+        <v>1.152308700239</v>
       </c>
       <c r="S2">
-        <v>0.9475013771363814</v>
+        <v>0.9778268096017091</v>
       </c>
       <c r="T2">
-        <v>0.9475013771363814</v>
+        <v>0.9778268096017091</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>0.194706</v>
       </c>
       <c r="I3">
-        <v>0.0524986228636186</v>
+        <v>0.02217319039829088</v>
       </c>
       <c r="J3">
-        <v>0.0524986228636186</v>
+        <v>0.02217319039829088</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -632,10 +632,10 @@
         <v>0.026129739906</v>
       </c>
       <c r="S3">
-        <v>0.0524986228636186</v>
+        <v>0.02217319039829088</v>
       </c>
       <c r="T3">
-        <v>0.0524986228636186</v>
+        <v>0.02217319039829088</v>
       </c>
     </row>
   </sheetData>
